--- a/TermProject/term2 시간 측정 표.xlsx
+++ b/TermProject/term2 시간 측정 표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutan\Desktop\자료구조\ds202002\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB8A4F-3FB0-4813-AECC-F2005E9AA8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9C6C95-CBDB-4849-A8E1-CA805DAE0753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>N = 100으로 고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t xml:space="preserve">시간 측정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,17 +160,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>시간 측정</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1407,6 +1400,1252 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1BEC-42CA-8F72-7663458C11CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1050000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1150000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1350000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1450000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1550000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1650000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1750000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1850000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2150000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2250000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2350000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2450000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2550000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2700000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2750000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2850000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2900000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2950000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3050000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3150000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3350000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3400000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3450000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3550000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3650000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3700000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3750000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3850000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3950000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4050000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4100000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4150000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4200000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4250000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4300000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4350000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4400000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4450000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4550000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4600000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4650000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4700000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4750000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4850000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4900000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4950000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5050000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5100000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5150000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5250000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5350000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5400000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5450000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5500000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5550000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5600000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5650000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5700000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5750000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5800000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5850000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5900000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5950000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6050000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6100000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6150000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6200000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6250000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6300000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6350000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6450000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6550000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6600000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6650000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6700000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6750000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6800000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6850000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6900000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6950000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7050000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7100000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7150000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7250000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7300000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7350000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7400000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7450000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7550000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7600000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7650000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7700000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7750000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7850000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7900000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7950000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8050000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8100000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8150000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8250000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8300000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8350000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8450000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8500000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8550000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8600000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8650000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8700000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8750000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8800000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8850000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8900000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8950000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9050000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9150000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9200000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9250000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9300000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9350000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9400000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9450000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9500000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9550000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9650000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9700000</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9750000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9800000</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9850000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9900000</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9950000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1811</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2344</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2326</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2342</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2578</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2484</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2629</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2864</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2918</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2987</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3098</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3096</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3208</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3330</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3474</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3412</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3417</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3436</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3493</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3566</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3582</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3854</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3941</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4222</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4553</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4166</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4431</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4323</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4394</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4367</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4361</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4434</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4564</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4940</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5243</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5104</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4812</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5019</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4867</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4913</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4945</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5016</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5038</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5167</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5618</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6062</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5912</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5747</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5560</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5495</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5464</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5624</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5565</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5617</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5714</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5712</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5810</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5928</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6157</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6286</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6912</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6409</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6496</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6394</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6510</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7484</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6702</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6559</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6543</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6666</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6635</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6669</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6722</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6891</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6806</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6909</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7007</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7193</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7084</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7244</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7133</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7420</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7739</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7521</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7441</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7381</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7445</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7476</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7632</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7587</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7832</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8157</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7833</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8032</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7893</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8017</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8189</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8437</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8295</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8259</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8320</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8614</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8857</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8657</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8867</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8764</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8606</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8803</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8849</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8983</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>10364</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9865</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9172</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9381</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9218</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9179</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9286</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9405</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9880</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9531</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9497</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9381</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9726</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9521</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9945</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9832</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10098</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10504</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10386</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9949</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6119-4820-9A2B-FCB980F409C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1604,36 +2843,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -1651,8 +2860,1304 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>시간 측정 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38500</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48500</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49500</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$15:$K$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3047</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2757</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4559</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3818</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6386</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5649</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6451</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6603</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7504</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8396</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7930</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7596</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9241</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9738</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10892</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11737</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13360</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14425</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14523</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13891</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17172</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17824</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18751</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20867</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16828</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21164</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22380</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21178</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22021</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23888</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19750</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22666</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19356</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24807</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26699</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41663</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33947</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25487</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32267</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30100</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37680</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42318</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42164</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34715</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41592</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>49280</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35663</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>58131</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>51652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46589</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>55785</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>55761</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>54763</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>59189</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54319</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>60449</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>58900</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>76884</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>61933</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>61933</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85028</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>59281</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>80436</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>82565</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>56379</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>60583</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102441</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>92553</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>87531</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>95319</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90342</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>95870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-97D6-4D11-8A29-2C709309A3C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>변경</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38500</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48500</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49500</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-97D6-4D11-8A29-2C709309A3C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$14</c:f>
@@ -1678,10 +4183,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$15:$J$215</c:f>
+              <c:f>Sheet1!$J$15:$J$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1990,10 +4495,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$15:$K$215</c:f>
+              <c:f>Sheet1!$K$15:$K$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2303,7 +4808,664 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1710-41EC-8A36-A0C1A53D9CDB}"/>
+              <c16:uniqueId val="{00000006-97D6-4D11-8A29-2C709309A3C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>변경</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38500</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48500</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49500</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-97D6-4D11-8A29-2C709309A3C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2454,21 +5616,861 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15811660190319884"/>
+          <c:y val="0.25049399069080175"/>
+          <c:w val="0.75523039678117021"/>
+          <c:h val="0.61806455585005882"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>변경</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38500</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48500</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49500</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E3D-4901-BEC5-3B19DB0B139F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1788704415"/>
+        <c:axId val="1639327151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1788704415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639327151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1639327151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1788704415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2488,46 +6490,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3083,522 +7045,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3639,16 +7085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>59634</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>534764</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65432</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>563216</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>172276</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3668,6 +7114,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>433426</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB69C17-6B0C-4A35-82BE-C30671D22810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3939,10 +7423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A12:K220"/>
+  <dimension ref="A12:L220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3950,7 +7434,7 @@
     <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3958,1560 +7442,2211 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
       <c r="J14" t="s">
         <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>50000</v>
       </c>
       <c r="B16">
         <v>449</v>
       </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
       <c r="J16">
         <v>500</v>
       </c>
       <c r="K16">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>100000</v>
       </c>
       <c r="B17">
         <v>753</v>
       </c>
+      <c r="C17">
+        <v>162</v>
+      </c>
       <c r="J17">
         <v>1000</v>
       </c>
       <c r="K17">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>150000</v>
       </c>
       <c r="B18">
         <v>604</v>
       </c>
+      <c r="C18">
+        <v>232</v>
+      </c>
       <c r="J18">
         <v>1500</v>
       </c>
       <c r="K18">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>200000</v>
       </c>
       <c r="B19">
         <v>799</v>
       </c>
+      <c r="C19">
+        <v>191</v>
+      </c>
       <c r="J19">
         <v>2000</v>
       </c>
       <c r="K19">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>250000</v>
       </c>
       <c r="B20">
         <v>949</v>
       </c>
+      <c r="C20">
+        <v>204</v>
+      </c>
       <c r="J20">
         <v>2500</v>
       </c>
       <c r="K20">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>300000</v>
       </c>
       <c r="B21">
         <v>1114</v>
       </c>
+      <c r="C21">
+        <v>266</v>
+      </c>
       <c r="J21">
         <v>3000</v>
       </c>
       <c r="K21">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>350000</v>
       </c>
       <c r="B22">
         <v>1302</v>
       </c>
+      <c r="C22">
+        <v>303</v>
+      </c>
       <c r="J22">
         <v>3500</v>
       </c>
       <c r="K22">
         <v>357</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>400000</v>
       </c>
       <c r="B23">
         <v>1520</v>
       </c>
+      <c r="C23">
+        <v>346</v>
+      </c>
       <c r="J23">
         <v>4000</v>
       </c>
       <c r="K23">
         <v>431</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>450000</v>
       </c>
       <c r="B24">
         <v>1714</v>
       </c>
+      <c r="C24">
+        <v>397</v>
+      </c>
       <c r="J24">
         <v>4500</v>
       </c>
       <c r="K24">
         <v>461</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>500000</v>
       </c>
       <c r="B25">
         <v>1864</v>
       </c>
+      <c r="C25">
+        <v>433</v>
+      </c>
       <c r="J25">
         <v>5000</v>
       </c>
       <c r="K25">
         <v>588</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>550000</v>
       </c>
       <c r="B26">
         <v>2284</v>
       </c>
+      <c r="C26">
+        <v>484</v>
+      </c>
       <c r="J26">
         <v>5500</v>
       </c>
       <c r="K26">
         <v>667</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>600000</v>
       </c>
       <c r="B27">
         <v>2300</v>
       </c>
+      <c r="C27">
+        <v>585</v>
+      </c>
       <c r="J27">
         <v>6000</v>
       </c>
       <c r="K27">
         <v>712</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>650000</v>
       </c>
       <c r="B28">
         <v>2384</v>
       </c>
+      <c r="C28">
+        <v>584</v>
+      </c>
       <c r="J28">
         <v>6500</v>
       </c>
       <c r="K28">
         <v>1148</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>700000</v>
       </c>
       <c r="B29">
         <v>2602</v>
       </c>
+      <c r="C29">
+        <v>652</v>
+      </c>
       <c r="J29">
         <v>7000</v>
       </c>
       <c r="K29">
         <v>1256</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>750000</v>
       </c>
       <c r="B30">
         <v>2787</v>
       </c>
+      <c r="C30">
+        <v>707</v>
+      </c>
       <c r="J30">
         <v>7500</v>
       </c>
       <c r="K30">
         <v>1744</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>800000</v>
       </c>
       <c r="B31">
         <v>3109</v>
       </c>
+      <c r="C31">
+        <v>771</v>
+      </c>
       <c r="J31">
         <v>8000</v>
       </c>
       <c r="K31">
         <v>1729</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>850000</v>
       </c>
       <c r="B32">
         <v>3168</v>
       </c>
+      <c r="C32">
+        <v>902</v>
+      </c>
       <c r="J32">
         <v>8500</v>
       </c>
       <c r="K32">
         <v>1631</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>900000</v>
       </c>
       <c r="B33">
         <v>3564</v>
       </c>
+      <c r="C33">
+        <v>847</v>
+      </c>
       <c r="J33">
         <v>9000</v>
       </c>
       <c r="K33">
         <v>2101</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>950000</v>
       </c>
       <c r="B34">
         <v>3821</v>
       </c>
+      <c r="C34">
+        <v>897</v>
+      </c>
       <c r="J34">
         <v>9500</v>
       </c>
       <c r="K34">
         <v>2205</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>1000000</v>
       </c>
       <c r="B35" s="1">
         <v>4535</v>
       </c>
+      <c r="C35">
+        <v>946</v>
+      </c>
       <c r="J35" s="1">
         <v>10000</v>
       </c>
       <c r="K35" s="1">
         <v>2196</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1050000</v>
       </c>
       <c r="B36">
         <v>4531</v>
       </c>
+      <c r="C36">
+        <v>1001</v>
+      </c>
       <c r="J36">
         <v>10500</v>
       </c>
       <c r="K36">
         <v>3047</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1100000</v>
       </c>
       <c r="B37">
         <v>4697</v>
       </c>
+      <c r="C37">
+        <v>1023</v>
+      </c>
       <c r="J37">
         <v>11000</v>
       </c>
       <c r="K37">
         <v>2757</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1150000</v>
       </c>
       <c r="B38">
         <v>6420</v>
       </c>
+      <c r="C38">
+        <v>1053</v>
+      </c>
       <c r="J38">
         <v>11500</v>
       </c>
       <c r="K38">
         <v>4559</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1200000</v>
       </c>
       <c r="B39">
         <v>5300</v>
       </c>
+      <c r="C39">
+        <v>1133</v>
+      </c>
       <c r="J39">
         <v>12000</v>
       </c>
       <c r="K39">
         <v>3795</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1250000</v>
       </c>
       <c r="B40">
         <v>5366</v>
       </c>
+      <c r="C40">
+        <v>1170</v>
+      </c>
       <c r="J40">
         <v>12500</v>
       </c>
       <c r="K40">
         <v>3818</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1300000</v>
       </c>
       <c r="B41">
         <v>5105</v>
       </c>
+      <c r="C41">
+        <v>1218</v>
+      </c>
       <c r="J41">
         <v>13000</v>
       </c>
       <c r="K41">
         <v>6386</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1350000</v>
       </c>
       <c r="B42">
         <v>5118</v>
       </c>
+      <c r="C42">
+        <v>1251</v>
+      </c>
       <c r="J42">
         <v>13500</v>
       </c>
       <c r="K42">
         <v>5239</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1400000</v>
       </c>
       <c r="B43">
         <v>5456</v>
       </c>
+      <c r="C43">
+        <v>1301</v>
+      </c>
       <c r="J43">
         <v>14000</v>
       </c>
       <c r="K43">
         <v>4092</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L43">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1450000</v>
       </c>
       <c r="B44">
         <v>5569</v>
       </c>
+      <c r="C44">
+        <v>1382</v>
+      </c>
       <c r="J44">
         <v>14500</v>
       </c>
       <c r="K44">
         <v>5649</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1500000</v>
       </c>
       <c r="B45">
         <v>5920</v>
       </c>
+      <c r="C45">
+        <v>1397</v>
+      </c>
       <c r="J45">
         <v>15000</v>
       </c>
       <c r="K45">
         <v>6451</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1550000</v>
       </c>
       <c r="B46">
         <v>5750</v>
       </c>
+      <c r="C46">
+        <v>1481</v>
+      </c>
       <c r="J46">
         <v>15500</v>
       </c>
       <c r="K46">
         <v>6603</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1600000</v>
       </c>
       <c r="B47">
         <v>6544</v>
       </c>
+      <c r="C47">
+        <v>1499</v>
+      </c>
       <c r="J47">
         <v>16000</v>
       </c>
       <c r="K47">
         <v>7504</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1650000</v>
       </c>
       <c r="B48">
         <v>6214</v>
       </c>
+      <c r="C48">
+        <v>1570</v>
+      </c>
       <c r="J48">
         <v>16500</v>
       </c>
       <c r="K48">
         <v>8396</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1700000</v>
       </c>
       <c r="B49">
         <v>6997</v>
       </c>
+      <c r="C49">
+        <v>1593</v>
+      </c>
       <c r="J49">
         <v>17000</v>
       </c>
       <c r="K49">
         <v>7930</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1750000</v>
       </c>
       <c r="B50">
         <v>7198</v>
       </c>
+      <c r="C50">
+        <v>1689</v>
+      </c>
       <c r="J50">
         <v>17500</v>
       </c>
       <c r="K50">
         <v>7596</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1800000</v>
       </c>
       <c r="B51">
         <v>7243</v>
       </c>
+      <c r="C51">
+        <v>1712</v>
+      </c>
       <c r="J51">
         <v>18000</v>
       </c>
       <c r="K51">
         <v>9241</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1850000</v>
       </c>
       <c r="B52">
         <v>9486</v>
       </c>
+      <c r="C52">
+        <v>1811</v>
+      </c>
       <c r="J52">
         <v>18500</v>
       </c>
       <c r="K52">
         <v>9738</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1900000</v>
       </c>
       <c r="B53">
         <v>9639</v>
       </c>
+      <c r="C53">
+        <v>1831</v>
+      </c>
       <c r="J53">
         <v>19000</v>
       </c>
       <c r="K53">
         <v>11008</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1950000</v>
       </c>
       <c r="B54">
         <v>8209</v>
       </c>
+      <c r="C54">
+        <v>1873</v>
+      </c>
       <c r="J54">
         <v>19500</v>
       </c>
       <c r="K54">
         <v>10892</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>2000000</v>
       </c>
       <c r="B55" s="1">
         <v>9480</v>
       </c>
+      <c r="C55">
+        <v>1894</v>
+      </c>
       <c r="J55" s="1">
         <v>20000</v>
       </c>
       <c r="K55" s="1">
         <v>11737</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>2050000</v>
       </c>
       <c r="B56">
         <v>8770</v>
       </c>
+      <c r="C56">
+        <v>1962</v>
+      </c>
       <c r="J56">
         <v>20500</v>
       </c>
       <c r="K56">
         <v>13360</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>2100000</v>
       </c>
       <c r="B57">
         <v>10476</v>
       </c>
+      <c r="C57">
+        <v>2026</v>
+      </c>
       <c r="J57">
         <v>21000</v>
       </c>
       <c r="K57">
         <v>14425</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>2150000</v>
       </c>
       <c r="B58">
         <v>10200</v>
       </c>
+      <c r="C58">
+        <v>2050</v>
+      </c>
       <c r="J58">
         <v>21500</v>
       </c>
       <c r="K58">
         <v>16320</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2200000</v>
       </c>
       <c r="B59">
         <v>10057</v>
       </c>
+      <c r="C59">
+        <v>2069</v>
+      </c>
       <c r="J59">
         <v>22000</v>
       </c>
       <c r="K59">
         <v>14523</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>2250000</v>
       </c>
       <c r="B60">
         <v>9086</v>
       </c>
+      <c r="C60">
+        <v>2144</v>
+      </c>
       <c r="J60">
         <v>22500</v>
       </c>
       <c r="K60">
         <v>13891</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L60">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2300000</v>
       </c>
       <c r="B61">
         <v>9584</v>
       </c>
+      <c r="C61">
+        <v>2344</v>
+      </c>
       <c r="J61">
         <v>23000</v>
       </c>
       <c r="K61">
         <v>17172</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L61">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>2350000</v>
       </c>
       <c r="B62">
         <v>12231</v>
       </c>
+      <c r="C62">
+        <v>2596</v>
+      </c>
       <c r="J62">
         <v>23500</v>
       </c>
       <c r="K62">
         <v>17824</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L62">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2400000</v>
       </c>
       <c r="B63">
         <v>10827</v>
       </c>
+      <c r="C63">
+        <v>2326</v>
+      </c>
       <c r="J63">
         <v>24000</v>
       </c>
       <c r="K63">
         <v>18751</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>2450000</v>
       </c>
       <c r="B64">
         <v>12218</v>
       </c>
+      <c r="C64">
+        <v>2342</v>
+      </c>
       <c r="J64">
         <v>24500</v>
       </c>
       <c r="K64">
         <v>20867</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L64">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2500000</v>
       </c>
       <c r="B65">
         <v>11378</v>
       </c>
+      <c r="C65">
+        <v>2410</v>
+      </c>
       <c r="J65">
         <v>25000</v>
       </c>
       <c r="K65">
         <v>16828</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L65">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2550000</v>
       </c>
       <c r="B66">
         <v>11137</v>
       </c>
+      <c r="C66">
+        <v>2578</v>
+      </c>
       <c r="J66">
         <v>25500</v>
       </c>
       <c r="K66">
         <v>21164</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L66">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>2600000</v>
       </c>
       <c r="B67">
         <v>12418</v>
       </c>
+      <c r="C67">
+        <v>2484</v>
+      </c>
       <c r="J67">
         <v>26000</v>
       </c>
       <c r="K67">
         <v>22380</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>2650000</v>
       </c>
       <c r="B68">
         <v>13119</v>
       </c>
+      <c r="C68">
+        <v>2530</v>
+      </c>
       <c r="J68">
         <v>26500</v>
       </c>
       <c r="K68">
         <v>21178</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>2700000</v>
       </c>
       <c r="B69">
         <v>11792</v>
       </c>
+      <c r="C69">
+        <v>2547</v>
+      </c>
       <c r="J69">
         <v>27000</v>
       </c>
       <c r="K69">
         <v>22021</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L69">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>2750000</v>
       </c>
       <c r="B70">
         <v>12594</v>
       </c>
+      <c r="C70">
+        <v>2629</v>
+      </c>
       <c r="J70">
         <v>27500</v>
       </c>
       <c r="K70">
         <v>23888</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L70">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2800000</v>
       </c>
       <c r="B71">
         <v>10760</v>
       </c>
+      <c r="C71">
+        <v>2761</v>
+      </c>
       <c r="J71">
         <v>28000</v>
       </c>
       <c r="K71">
         <v>19750</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L71">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>2850000</v>
       </c>
       <c r="B72">
         <v>12636</v>
       </c>
+      <c r="C72">
+        <v>2729</v>
+      </c>
       <c r="J72">
         <v>28500</v>
       </c>
       <c r="K72">
         <v>22666</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L72">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>2900000</v>
       </c>
       <c r="B73">
         <v>13453</v>
       </c>
+      <c r="C73">
+        <v>2864</v>
+      </c>
       <c r="J73">
         <v>29000</v>
       </c>
       <c r="K73">
         <v>19356</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L73">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>2950000</v>
       </c>
       <c r="B74">
         <v>13123</v>
       </c>
+      <c r="C74">
+        <v>2918</v>
+      </c>
       <c r="J74">
         <v>29500</v>
       </c>
       <c r="K74">
         <v>24807</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L74">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>3000000</v>
       </c>
       <c r="B75" s="1">
         <v>13160</v>
       </c>
+      <c r="C75">
+        <v>2928</v>
+      </c>
       <c r="J75" s="1">
         <v>30000</v>
       </c>
       <c r="K75" s="1">
         <v>26699</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3050000</v>
       </c>
       <c r="B76">
         <v>13875</v>
       </c>
+      <c r="C76">
+        <v>2987</v>
+      </c>
       <c r="J76">
         <v>30500</v>
       </c>
       <c r="K76">
         <v>41663</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3100000</v>
       </c>
       <c r="B77">
         <v>14471</v>
       </c>
+      <c r="C77">
+        <v>2948</v>
+      </c>
       <c r="J77">
         <v>31000</v>
       </c>
       <c r="K77">
         <v>33947</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3150000</v>
       </c>
       <c r="B78">
         <v>14873</v>
       </c>
+      <c r="C78">
+        <v>2997</v>
+      </c>
       <c r="J78">
         <v>31500</v>
       </c>
       <c r="K78">
         <v>25487</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L78">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3200000</v>
       </c>
       <c r="B79">
         <v>14390</v>
       </c>
+      <c r="C79">
+        <v>3098</v>
+      </c>
       <c r="J79">
         <v>32000</v>
       </c>
       <c r="K79">
         <v>32267</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3250000</v>
       </c>
       <c r="B80">
         <v>15098</v>
       </c>
+      <c r="C80">
+        <v>3096</v>
+      </c>
       <c r="J80">
         <v>32500</v>
       </c>
       <c r="K80">
         <v>30100</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L80">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>3300000</v>
       </c>
       <c r="B81">
         <v>14851</v>
       </c>
+      <c r="C81">
+        <v>3231</v>
+      </c>
       <c r="J81">
         <v>33000</v>
       </c>
       <c r="K81">
         <v>37680</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L81">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3350000</v>
       </c>
       <c r="B82">
         <v>14801</v>
       </c>
+      <c r="C82">
+        <v>3208</v>
+      </c>
       <c r="J82">
         <v>33500</v>
       </c>
       <c r="K82">
         <v>42318</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3400000</v>
       </c>
       <c r="B83">
         <v>13478</v>
       </c>
+      <c r="C83">
+        <v>3330</v>
+      </c>
       <c r="J83">
         <v>34000</v>
       </c>
       <c r="K83">
         <v>42164</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L83">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>3450000</v>
       </c>
       <c r="B84">
         <v>14223</v>
       </c>
+      <c r="C84">
+        <v>3474</v>
+      </c>
       <c r="J84">
         <v>34500</v>
       </c>
       <c r="K84">
         <v>34715</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L84">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>3500000</v>
       </c>
       <c r="B85">
         <v>15180</v>
       </c>
+      <c r="C85">
+        <v>3412</v>
+      </c>
       <c r="J85">
         <v>35000</v>
       </c>
       <c r="K85">
         <v>41592</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L85">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>3550000</v>
       </c>
       <c r="B86">
         <v>15110</v>
       </c>
+      <c r="C86">
+        <v>3417</v>
+      </c>
       <c r="J86">
         <v>35500</v>
       </c>
       <c r="K86">
         <v>49280</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L86">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>3600000</v>
       </c>
       <c r="B87">
         <v>15141</v>
       </c>
+      <c r="C87">
+        <v>3416</v>
+      </c>
       <c r="J87">
         <v>36000</v>
       </c>
       <c r="K87">
         <v>45473</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L87">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>3650000</v>
       </c>
       <c r="B88">
         <v>15740</v>
       </c>
+      <c r="C88">
+        <v>3436</v>
+      </c>
       <c r="J88">
         <v>36500</v>
       </c>
       <c r="K88">
         <v>35663</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L88">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>3700000</v>
       </c>
       <c r="B89">
         <v>16314</v>
       </c>
+      <c r="C89">
+        <v>3493</v>
+      </c>
       <c r="J89">
         <v>37000</v>
       </c>
       <c r="K89">
         <v>44591</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>3750000</v>
       </c>
       <c r="B90">
         <v>16566</v>
       </c>
+      <c r="C90">
+        <v>3566</v>
+      </c>
       <c r="J90">
         <v>37500</v>
       </c>
       <c r="K90">
         <v>58131</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L90">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>3800000</v>
       </c>
       <c r="B91">
         <v>16188</v>
       </c>
+      <c r="C91">
+        <v>3582</v>
+      </c>
       <c r="J91">
         <v>38000</v>
       </c>
       <c r="K91">
         <v>43995</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L91">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>3850000</v>
       </c>
       <c r="B92">
         <v>16656</v>
       </c>
+      <c r="C92">
+        <v>3650</v>
+      </c>
       <c r="J92">
         <v>38500</v>
       </c>
       <c r="K92">
         <v>51652</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L92">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>3900000</v>
       </c>
       <c r="B93">
         <v>15760</v>
       </c>
+      <c r="C93">
+        <v>3770</v>
+      </c>
       <c r="J93">
         <v>39000</v>
       </c>
       <c r="K93">
         <v>46589</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L93">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>3950000</v>
       </c>
       <c r="B94">
         <v>15474</v>
       </c>
+      <c r="C94">
+        <v>3920</v>
+      </c>
       <c r="J94">
         <v>39500</v>
       </c>
       <c r="K94">
         <v>55785</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L94">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>4000000</v>
       </c>
       <c r="B95" s="1">
         <v>16085</v>
       </c>
+      <c r="C95">
+        <v>3854</v>
+      </c>
       <c r="J95" s="1">
         <v>40000</v>
       </c>
       <c r="K95" s="1">
         <v>55761</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L95">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>4050000</v>
       </c>
       <c r="B96">
         <v>15824</v>
       </c>
+      <c r="C96">
+        <v>3875</v>
+      </c>
       <c r="J96">
         <v>40500</v>
       </c>
       <c r="K96">
         <v>54763</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L96">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>4100000</v>
       </c>
       <c r="B97">
         <v>15869</v>
       </c>
+      <c r="C97">
+        <v>3941</v>
+      </c>
       <c r="J97">
         <v>41000</v>
       </c>
       <c r="K97">
         <v>59189</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>4150000</v>
       </c>
       <c r="B98">
         <v>17277</v>
       </c>
+      <c r="C98">
+        <v>4222</v>
+      </c>
       <c r="J98">
         <v>41500</v>
       </c>
       <c r="K98">
         <v>54319</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L98">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>4200000</v>
       </c>
       <c r="B99">
         <v>17260</v>
       </c>
+      <c r="C99">
+        <v>4553</v>
+      </c>
       <c r="J99">
         <v>42000</v>
       </c>
       <c r="K99">
         <v>60449</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L99">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>4250000</v>
       </c>
       <c r="B100">
         <v>17318</v>
       </c>
+      <c r="C100">
+        <v>4166</v>
+      </c>
       <c r="J100">
         <v>42500</v>
       </c>
       <c r="K100">
         <v>58900</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L100">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>4300000</v>
       </c>
       <c r="B101">
         <v>17535</v>
       </c>
+      <c r="C101">
+        <v>4431</v>
+      </c>
       <c r="J101">
         <v>43000</v>
       </c>
       <c r="K101">
         <v>76884</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L101">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>4350000</v>
       </c>
       <c r="B102">
         <v>17517</v>
       </c>
+      <c r="C102">
+        <v>4323</v>
+      </c>
       <c r="J102">
         <v>43500</v>
       </c>
       <c r="K102">
         <v>61933</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L102">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>4400000</v>
       </c>
       <c r="B103">
         <v>18058</v>
       </c>
+      <c r="C103">
+        <v>4502</v>
+      </c>
       <c r="J103">
         <v>44000</v>
       </c>
       <c r="K103">
         <v>61933</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L103">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>4450000</v>
       </c>
       <c r="B104">
         <v>18820</v>
       </c>
+      <c r="C104">
+        <v>4750</v>
+      </c>
       <c r="J104">
         <v>44500</v>
       </c>
       <c r="K104">
         <v>85028</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L104">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>4500000</v>
       </c>
       <c r="B105">
         <v>17845</v>
       </c>
+      <c r="C105">
+        <v>4394</v>
+      </c>
       <c r="J105">
         <v>45000</v>
       </c>
       <c r="K105">
         <v>59281</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L105">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>4550000</v>
       </c>
       <c r="B106">
         <v>18059</v>
       </c>
+      <c r="C106">
+        <v>4367</v>
+      </c>
       <c r="J106">
         <v>45500</v>
       </c>
       <c r="K106">
         <v>80436</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L106">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>4600000</v>
       </c>
       <c r="B107">
         <v>20785</v>
       </c>
+      <c r="C107">
+        <v>4361</v>
+      </c>
       <c r="J107">
         <v>46000</v>
       </c>
       <c r="K107">
         <v>82565</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L107">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>4650000</v>
       </c>
       <c r="B108">
         <v>20152</v>
       </c>
+      <c r="C108">
+        <v>4434</v>
+      </c>
       <c r="J108">
         <v>46500</v>
       </c>
       <c r="K108">
         <v>56379</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L108">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>4700000</v>
       </c>
       <c r="B109">
         <v>19162</v>
       </c>
+      <c r="C109">
+        <v>4513</v>
+      </c>
       <c r="J109">
         <v>47000</v>
       </c>
       <c r="K109">
         <v>60583</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>4750000</v>
       </c>
       <c r="B110">
         <v>19487</v>
       </c>
+      <c r="C110">
+        <v>4564</v>
+      </c>
       <c r="J110">
         <v>47500</v>
       </c>
       <c r="K110">
         <v>102441</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L110">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>4800000</v>
       </c>
       <c r="B111">
         <v>19013</v>
       </c>
+      <c r="C111">
+        <v>4940</v>
+      </c>
       <c r="J111">
         <v>48000</v>
       </c>
       <c r="K111">
         <v>92553</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L111">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>4850000</v>
       </c>
       <c r="B112">
         <v>19887</v>
       </c>
+      <c r="C112">
+        <v>5243</v>
+      </c>
       <c r="J112">
         <v>48500</v>
       </c>
       <c r="K112">
         <v>87531</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L112">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>4900000</v>
       </c>
       <c r="B113">
         <v>18763</v>
       </c>
+      <c r="C113">
+        <v>5104</v>
+      </c>
       <c r="J113">
         <v>49000</v>
       </c>
       <c r="K113">
         <v>95319</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>4950000</v>
       </c>
       <c r="B114">
         <v>18601</v>
       </c>
+      <c r="C114">
+        <v>4812</v>
+      </c>
       <c r="J114">
         <v>49500</v>
       </c>
       <c r="K114">
         <v>90342</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L114">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>5000000</v>
       </c>
       <c r="B115" s="1">
         <v>19458</v>
       </c>
+      <c r="C115">
+        <v>5019</v>
+      </c>
       <c r="J115" s="1">
         <v>50000</v>
       </c>
       <c r="K115" s="1">
         <v>95870</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L115">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>5050000</v>
       </c>
       <c r="B116">
         <v>20547</v>
       </c>
+      <c r="C116">
+        <v>4867</v>
+      </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>5100000</v>
       </c>
       <c r="B117">
         <v>21088</v>
       </c>
+      <c r="C117">
+        <v>4913</v>
+      </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>5150000</v>
       </c>
       <c r="B118">
         <v>22265</v>
       </c>
+      <c r="C118">
+        <v>4945</v>
+      </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>5200000</v>
       </c>
       <c r="B119">
         <v>22566</v>
       </c>
+      <c r="C119">
+        <v>4996</v>
+      </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>5250000</v>
       </c>
       <c r="B120">
         <v>23210</v>
       </c>
+      <c r="C120">
+        <v>5016</v>
+      </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>5300000</v>
       </c>
       <c r="B121">
         <v>24793</v>
       </c>
+      <c r="C121">
+        <v>5038</v>
+      </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>5350000</v>
       </c>
       <c r="B122">
         <v>23870</v>
       </c>
+      <c r="C122">
+        <v>5167</v>
+      </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>5400000</v>
       </c>
       <c r="B123">
         <v>24447</v>
       </c>
+      <c r="C123">
+        <v>5618</v>
+      </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>5450000</v>
       </c>
       <c r="B124">
         <v>24889</v>
       </c>
+      <c r="C124">
+        <v>6062</v>
+      </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>5500000</v>
       </c>
       <c r="B125">
         <v>23536</v>
       </c>
+      <c r="C125">
+        <v>5912</v>
+      </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>5550000</v>
       </c>
       <c r="B126">
         <v>22889</v>
       </c>
+      <c r="C126">
+        <v>5747</v>
+      </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>5600000</v>
       </c>
       <c r="B127">
         <v>24263</v>
       </c>
+      <c r="C127">
+        <v>5560</v>
+      </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>5650000</v>
       </c>
       <c r="B128">
         <v>24343</v>
+      </c>
+      <c r="C128">
+        <v>5495</v>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -5523,6 +9658,9 @@
       <c r="B129">
         <v>25798</v>
       </c>
+      <c r="C129">
+        <v>5464</v>
+      </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
@@ -5533,6 +9671,9 @@
       <c r="B130">
         <v>24829</v>
       </c>
+      <c r="C130">
+        <v>5624</v>
+      </c>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
@@ -5543,6 +9684,9 @@
       <c r="B131">
         <v>25464</v>
       </c>
+      <c r="C131">
+        <v>5529</v>
+      </c>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
@@ -5553,6 +9697,9 @@
       <c r="B132">
         <v>24088</v>
       </c>
+      <c r="C132">
+        <v>5565</v>
+      </c>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
@@ -5563,6 +9710,9 @@
       <c r="B133">
         <v>25461</v>
       </c>
+      <c r="C133">
+        <v>5617</v>
+      </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
@@ -5573,6 +9723,9 @@
       <c r="B134">
         <v>26098</v>
       </c>
+      <c r="C134">
+        <v>5714</v>
+      </c>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
@@ -5583,6 +9736,9 @@
       <c r="B135" s="1">
         <v>25530</v>
       </c>
+      <c r="C135">
+        <v>5712</v>
+      </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
@@ -5593,6 +9749,9 @@
       <c r="B136">
         <v>26597</v>
       </c>
+      <c r="C136">
+        <v>5810</v>
+      </c>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
@@ -5603,6 +9762,9 @@
       <c r="B137">
         <v>26294</v>
       </c>
+      <c r="C137">
+        <v>6002</v>
+      </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
@@ -5613,6 +9775,9 @@
       <c r="B138">
         <v>27017</v>
       </c>
+      <c r="C138">
+        <v>5928</v>
+      </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
@@ -5623,6 +9788,9 @@
       <c r="B139">
         <v>24797</v>
       </c>
+      <c r="C139">
+        <v>6157</v>
+      </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
@@ -5633,6 +9801,9 @@
       <c r="B140">
         <v>24000</v>
       </c>
+      <c r="C140">
+        <v>6286</v>
+      </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
@@ -5643,6 +9814,9 @@
       <c r="B141">
         <v>25612</v>
       </c>
+      <c r="C141">
+        <v>6912</v>
+      </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
@@ -5653,6 +9827,9 @@
       <c r="B142">
         <v>26585</v>
       </c>
+      <c r="C142">
+        <v>6409</v>
+      </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
@@ -5663,6 +9840,9 @@
       <c r="B143">
         <v>26952</v>
       </c>
+      <c r="C143">
+        <v>6496</v>
+      </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
@@ -5673,6 +9853,9 @@
       <c r="B144">
         <v>27666</v>
       </c>
+      <c r="C144">
+        <v>6394</v>
+      </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
@@ -5683,6 +9866,9 @@
       <c r="B145">
         <v>28131</v>
       </c>
+      <c r="C145">
+        <v>6510</v>
+      </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
@@ -5693,6 +9879,9 @@
       <c r="B146">
         <v>25980</v>
       </c>
+      <c r="C146">
+        <v>6700</v>
+      </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
@@ -5703,6 +9892,9 @@
       <c r="B147">
         <v>24779</v>
       </c>
+      <c r="C147">
+        <v>7133</v>
+      </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
@@ -5713,6 +9905,9 @@
       <c r="B148">
         <v>29063</v>
       </c>
+      <c r="C148">
+        <v>7484</v>
+      </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
@@ -5723,6 +9918,9 @@
       <c r="B149">
         <v>28270</v>
       </c>
+      <c r="C149">
+        <v>6700</v>
+      </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
@@ -5733,6 +9931,9 @@
       <c r="B150">
         <v>27978</v>
       </c>
+      <c r="C150">
+        <v>6702</v>
+      </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
@@ -5743,6 +9944,9 @@
       <c r="B151">
         <v>28038</v>
       </c>
+      <c r="C151">
+        <v>6559</v>
+      </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
@@ -5753,6 +9957,9 @@
       <c r="B152">
         <v>26651</v>
       </c>
+      <c r="C152">
+        <v>6543</v>
+      </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
@@ -5763,6 +9970,9 @@
       <c r="B153">
         <v>27483</v>
       </c>
+      <c r="C153">
+        <v>6666</v>
+      </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
@@ -5773,6 +9983,9 @@
       <c r="B154">
         <v>27158</v>
       </c>
+      <c r="C154">
+        <v>6635</v>
+      </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
@@ -5783,6 +9996,9 @@
       <c r="B155" s="1">
         <v>30269</v>
       </c>
+      <c r="C155">
+        <v>6669</v>
+      </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
@@ -5793,6 +10009,9 @@
       <c r="B156">
         <v>29074</v>
       </c>
+      <c r="C156">
+        <v>6722</v>
+      </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
@@ -5803,6 +10022,9 @@
       <c r="B157">
         <v>26982</v>
       </c>
+      <c r="C157">
+        <v>6891</v>
+      </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
@@ -5813,6 +10035,9 @@
       <c r="B158">
         <v>28968</v>
       </c>
+      <c r="C158">
+        <v>6806</v>
+      </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
@@ -5823,6 +10048,9 @@
       <c r="B159">
         <v>27127</v>
       </c>
+      <c r="C159">
+        <v>6909</v>
+      </c>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
@@ -5833,6 +10061,9 @@
       <c r="B160">
         <v>30114</v>
       </c>
+      <c r="C160">
+        <v>7007</v>
+      </c>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
@@ -5843,6 +10074,9 @@
       <c r="B161">
         <v>32393</v>
       </c>
+      <c r="C161">
+        <v>7193</v>
+      </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
@@ -5853,6 +10087,9 @@
       <c r="B162">
         <v>30515</v>
       </c>
+      <c r="C162">
+        <v>7084</v>
+      </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
@@ -5863,6 +10100,9 @@
       <c r="B163">
         <v>32988</v>
       </c>
+      <c r="C163">
+        <v>7244</v>
+      </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
@@ -5873,6 +10113,9 @@
       <c r="B164">
         <v>31956</v>
       </c>
+      <c r="C164">
+        <v>7133</v>
+      </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
@@ -5883,6 +10126,9 @@
       <c r="B165">
         <v>30974</v>
       </c>
+      <c r="C165">
+        <v>7420</v>
+      </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
@@ -5893,6 +10139,9 @@
       <c r="B166">
         <v>32453</v>
       </c>
+      <c r="C166">
+        <v>7739</v>
+      </c>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
@@ -5903,6 +10152,9 @@
       <c r="B167">
         <v>33421</v>
       </c>
+      <c r="C167">
+        <v>7521</v>
+      </c>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
@@ -5913,6 +10165,9 @@
       <c r="B168">
         <v>39351</v>
       </c>
+      <c r="C168">
+        <v>7441</v>
+      </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
@@ -5923,6 +10178,9 @@
       <c r="B169">
         <v>36315</v>
       </c>
+      <c r="C169">
+        <v>7381</v>
+      </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
@@ -5933,6 +10191,9 @@
       <c r="B170">
         <v>34517</v>
       </c>
+      <c r="C170">
+        <v>7445</v>
+      </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
@@ -5943,6 +10204,9 @@
       <c r="B171">
         <v>32393</v>
       </c>
+      <c r="C171">
+        <v>7476</v>
+      </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
@@ -5953,6 +10217,9 @@
       <c r="B172">
         <v>30305</v>
       </c>
+      <c r="C172">
+        <v>7632</v>
+      </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
@@ -5963,6 +10230,9 @@
       <c r="B173">
         <v>32689</v>
       </c>
+      <c r="C173">
+        <v>7536</v>
+      </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
@@ -5973,6 +10243,9 @@
       <c r="B174">
         <v>34267</v>
       </c>
+      <c r="C174">
+        <v>7587</v>
+      </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
@@ -5983,6 +10256,9 @@
       <c r="B175" s="1">
         <v>31794</v>
       </c>
+      <c r="C175">
+        <v>7832</v>
+      </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
@@ -5993,6 +10269,9 @@
       <c r="B176">
         <v>32083</v>
       </c>
+      <c r="C176">
+        <v>8157</v>
+      </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
@@ -6003,6 +10282,9 @@
       <c r="B177">
         <v>34239</v>
       </c>
+      <c r="C177">
+        <v>7833</v>
+      </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
@@ -6013,6 +10295,9 @@
       <c r="B178">
         <v>35769</v>
       </c>
+      <c r="C178">
+        <v>8032</v>
+      </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
@@ -6023,6 +10308,9 @@
       <c r="B179">
         <v>30989</v>
       </c>
+      <c r="C179">
+        <v>7893</v>
+      </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
@@ -6033,6 +10321,9 @@
       <c r="B180">
         <v>30886</v>
       </c>
+      <c r="C180">
+        <v>8017</v>
+      </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
@@ -6043,6 +10334,9 @@
       <c r="B181">
         <v>31620</v>
       </c>
+      <c r="C181">
+        <v>8189</v>
+      </c>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
@@ -6053,6 +10347,9 @@
       <c r="B182">
         <v>34872</v>
       </c>
+      <c r="C182">
+        <v>8437</v>
+      </c>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
@@ -6063,6 +10360,9 @@
       <c r="B183">
         <v>36798</v>
       </c>
+      <c r="C183">
+        <v>8295</v>
+      </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
@@ -6073,6 +10373,9 @@
       <c r="B184">
         <v>35208</v>
       </c>
+      <c r="C184">
+        <v>8259</v>
+      </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
@@ -6083,6 +10386,9 @@
       <c r="B185">
         <v>32514</v>
       </c>
+      <c r="C185">
+        <v>8320</v>
+      </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
@@ -6093,6 +10399,9 @@
       <c r="B186">
         <v>38623</v>
       </c>
+      <c r="C186">
+        <v>8614</v>
+      </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
@@ -6103,6 +10412,9 @@
       <c r="B187">
         <v>41436</v>
       </c>
+      <c r="C187">
+        <v>8857</v>
+      </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
@@ -6113,6 +10425,9 @@
       <c r="B188">
         <v>40609</v>
       </c>
+      <c r="C188">
+        <v>8657</v>
+      </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
@@ -6123,6 +10438,9 @@
       <c r="B189">
         <v>41333</v>
       </c>
+      <c r="C189">
+        <v>8867</v>
+      </c>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
@@ -6133,6 +10451,9 @@
       <c r="B190">
         <v>44395</v>
       </c>
+      <c r="C190">
+        <v>8764</v>
+      </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
@@ -6143,6 +10464,9 @@
       <c r="B191">
         <v>38571</v>
       </c>
+      <c r="C191">
+        <v>8606</v>
+      </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
@@ -6153,6 +10477,9 @@
       <c r="B192">
         <v>39993</v>
       </c>
+      <c r="C192">
+        <v>8803</v>
+      </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
@@ -6163,6 +10490,9 @@
       <c r="B193">
         <v>37106</v>
       </c>
+      <c r="C193">
+        <v>8849</v>
+      </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
@@ -6173,6 +10503,9 @@
       <c r="B194">
         <v>37739</v>
       </c>
+      <c r="C194">
+        <v>8983</v>
+      </c>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
@@ -6183,6 +10516,9 @@
       <c r="B195" s="1">
         <v>38201</v>
       </c>
+      <c r="C195">
+        <v>10364</v>
+      </c>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
@@ -6193,6 +10529,9 @@
       <c r="B196">
         <v>38299</v>
       </c>
+      <c r="C196">
+        <v>9865</v>
+      </c>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
@@ -6203,6 +10542,9 @@
       <c r="B197">
         <v>37336</v>
       </c>
+      <c r="C197">
+        <v>9172</v>
+      </c>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
@@ -6213,6 +10555,9 @@
       <c r="B198">
         <v>37635</v>
       </c>
+      <c r="C198">
+        <v>9381</v>
+      </c>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
@@ -6223,6 +10568,9 @@
       <c r="B199">
         <v>43937</v>
       </c>
+      <c r="C199">
+        <v>9218</v>
+      </c>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
@@ -6233,6 +10581,9 @@
       <c r="B200">
         <v>42032</v>
       </c>
+      <c r="C200">
+        <v>9179</v>
+      </c>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
@@ -6243,6 +10594,9 @@
       <c r="B201">
         <v>41103</v>
       </c>
+      <c r="C201">
+        <v>9286</v>
+      </c>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
@@ -6253,6 +10607,9 @@
       <c r="B202">
         <v>42780</v>
       </c>
+      <c r="C202">
+        <v>9405</v>
+      </c>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
@@ -6263,6 +10620,9 @@
       <c r="B203">
         <v>40732</v>
       </c>
+      <c r="C203">
+        <v>9880</v>
+      </c>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
@@ -6273,6 +10633,9 @@
       <c r="B204">
         <v>42232</v>
       </c>
+      <c r="C204">
+        <v>9531</v>
+      </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
@@ -6283,6 +10646,9 @@
       <c r="B205">
         <v>40756</v>
       </c>
+      <c r="C205">
+        <v>9497</v>
+      </c>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
@@ -6293,6 +10659,9 @@
       <c r="B206">
         <v>39752</v>
       </c>
+      <c r="C206">
+        <v>9381</v>
+      </c>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
@@ -6303,6 +10672,9 @@
       <c r="B207">
         <v>40420</v>
       </c>
+      <c r="C207">
+        <v>9726</v>
+      </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
@@ -6313,6 +10685,9 @@
       <c r="B208">
         <v>42361</v>
       </c>
+      <c r="C208">
+        <v>9521</v>
+      </c>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
@@ -6323,6 +10698,9 @@
       <c r="B209">
         <v>40636</v>
       </c>
+      <c r="C209">
+        <v>9945</v>
+      </c>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
@@ -6333,6 +10711,9 @@
       <c r="B210">
         <v>42375</v>
       </c>
+      <c r="C210">
+        <v>9832</v>
+      </c>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
@@ -6343,6 +10724,9 @@
       <c r="B211">
         <v>45687</v>
       </c>
+      <c r="C211">
+        <v>10098</v>
+      </c>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
@@ -6353,6 +10737,9 @@
       <c r="B212">
         <v>46181</v>
       </c>
+      <c r="C212">
+        <v>10504</v>
+      </c>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
@@ -6363,6 +10750,9 @@
       <c r="B213">
         <v>49405</v>
       </c>
+      <c r="C213">
+        <v>10386</v>
+      </c>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
@@ -6373,6 +10763,9 @@
       <c r="B214">
         <v>45477</v>
       </c>
+      <c r="C214">
+        <v>9949</v>
+      </c>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
@@ -6382,6 +10775,9 @@
       </c>
       <c r="B215" s="1">
         <v>44915</v>
+      </c>
+      <c r="C215">
+        <v>9968</v>
       </c>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
